--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Rankings/estadisticos_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_50pct/Rankings/estadisticos_No_Lineal_Estacionario_SETAR.xlsx
@@ -55,19 +55,19 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
+    <t>AREPD</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
   </si>
   <si>
-    <t>AREPD</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
     <t>MCPS</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
   </si>
 </sst>
 </file>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.6187332405688017</v>
+        <v>0.6035235594163624</v>
       </c>
       <c r="C2">
-        <v>0.5487270285680268</v>
+        <v>0.524410490407889</v>
       </c>
       <c r="D2">
-        <v>0.3347712433524196</v>
+        <v>0.3553281804641761</v>
       </c>
       <c r="E2">
-        <v>0.541059088799988</v>
+        <v>0.5887561055740662</v>
       </c>
       <c r="F2">
-        <v>0.2378230354359929</v>
+        <v>0.2210356130323674</v>
       </c>
       <c r="G2">
-        <v>2.601115701830167</v>
+        <v>3.689455222022358</v>
       </c>
       <c r="H2">
-        <v>0.3769057488474976</v>
+        <v>0.3612455980299909</v>
       </c>
       <c r="I2">
-        <v>0.9107761129698076</v>
+        <v>0.9011637464390413</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.6457990525229709</v>
+        <v>0.6069574066118956</v>
       </c>
       <c r="C3">
-        <v>0.5527403290621131</v>
+        <v>0.519485702214351</v>
       </c>
       <c r="D3">
-        <v>0.372613846710536</v>
+        <v>0.3501056496609765</v>
       </c>
       <c r="E3">
-        <v>0.5769810984621756</v>
+        <v>0.5768207881592641</v>
       </c>
       <c r="F3">
-        <v>0.2336011154228767</v>
+        <v>0.2116925465115482</v>
       </c>
       <c r="G3">
-        <v>2.196451551568347</v>
+        <v>3.424205974944159</v>
       </c>
       <c r="H3">
-        <v>0.3724619909069985</v>
+        <v>0.3577047244412214</v>
       </c>
       <c r="I3">
-        <v>0.937881550835144</v>
+        <v>0.8983933751209477</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.6620003676271295</v>
+        <v>0.6257982614985358</v>
       </c>
       <c r="C4">
-        <v>0.566724558107162</v>
+        <v>0.5460044659108338</v>
       </c>
       <c r="D4">
-        <v>0.3891528881952184</v>
+        <v>0.3568217625302476</v>
       </c>
       <c r="E4">
-        <v>0.5878439155405546</v>
+        <v>0.570186567274576</v>
       </c>
       <c r="F4">
-        <v>0.226792636334849</v>
+        <v>0.2141694595976465</v>
       </c>
       <c r="G4">
-        <v>2.743844293305401</v>
+        <v>2.826489614398715</v>
       </c>
       <c r="H4">
-        <v>0.384296503813979</v>
+        <v>0.3731148846608535</v>
       </c>
       <c r="I4">
-        <v>0.9302049027564889</v>
+        <v>0.897182722919653</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.6949129175544786</v>
+        <v>0.6494160910421727</v>
       </c>
       <c r="C5">
-        <v>0.5745126112530329</v>
+        <v>0.5466212976817633</v>
       </c>
       <c r="D5">
-        <v>0.4414320463943917</v>
+        <v>0.4097418112415996</v>
       </c>
       <c r="E5">
-        <v>0.6352336173975138</v>
+        <v>0.6309388031701715</v>
       </c>
       <c r="F5">
-        <v>0.2320505819835854</v>
+        <v>0.2164310907365711</v>
       </c>
       <c r="G5">
-        <v>2.963518255802808</v>
+        <v>4.556797777577984</v>
       </c>
       <c r="H5">
-        <v>0.3956132915306174</v>
+        <v>0.3766645500258733</v>
       </c>
       <c r="I5">
-        <v>0.9598495566322417</v>
+        <v>0.9215750917565539</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.7093707955505162</v>
+        <v>0.658292690354643</v>
       </c>
       <c r="C6">
-        <v>0.5848585497321385</v>
+        <v>0.552701550131376</v>
       </c>
       <c r="D6">
-        <v>0.4391781404876001</v>
+        <v>0.4143066360452979</v>
       </c>
       <c r="E6">
-        <v>0.619109418152421</v>
+        <v>0.6293653903738441</v>
       </c>
       <c r="F6">
-        <v>0.2238284490454913</v>
+        <v>0.216779507111915</v>
       </c>
       <c r="G6">
-        <v>3.33985909039735</v>
+        <v>4.031062453741013</v>
       </c>
       <c r="H6">
-        <v>0.4059047612120731</v>
+        <v>0.3821371181472486</v>
       </c>
       <c r="I6">
-        <v>0.9905070710186613</v>
+        <v>0.9306873610657183</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.7242411280671145</v>
+        <v>0.6730176862250314</v>
       </c>
       <c r="C7">
-        <v>0.5889695561169062</v>
+        <v>0.5632174912620923</v>
       </c>
       <c r="D7">
-        <v>0.4463946097263931</v>
+        <v>0.4135445591404391</v>
       </c>
       <c r="E7">
-        <v>0.6163618613012906</v>
+        <v>0.6144631376034382</v>
       </c>
       <c r="F7">
-        <v>0.2297703165662453</v>
+        <v>0.2126180003926161</v>
       </c>
       <c r="G7">
-        <v>2.635281504793725</v>
+        <v>3.651357303319196</v>
       </c>
       <c r="H7">
-        <v>0.4013718587686988</v>
+        <v>0.3888072965993129</v>
       </c>
       <c r="I7">
-        <v>1.033811272220018</v>
+        <v>0.942603050143926</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.7349531908852894</v>
+        <v>0.6768286553107764</v>
       </c>
       <c r="C8">
-        <v>0.5978578231147844</v>
+        <v>0.5721299139900039</v>
       </c>
       <c r="D8">
-        <v>0.4696157982117637</v>
+        <v>0.4045285323857322</v>
       </c>
       <c r="E8">
-        <v>0.6389737523910699</v>
+        <v>0.5976823368980834</v>
       </c>
       <c r="F8">
-        <v>0.2387880298390697</v>
+        <v>0.2201973903871716</v>
       </c>
       <c r="G8">
-        <v>3.366701079375468</v>
+        <v>3.05336954453833</v>
       </c>
       <c r="H8">
-        <v>0.4104269049476598</v>
+        <v>0.3949624198556004</v>
       </c>
       <c r="I8">
-        <v>0.9824684088475231</v>
+        <v>0.9730167178321485</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.7414558852064858</v>
+        <v>0.6803384920575406</v>
       </c>
       <c r="C9">
-        <v>0.6059884381103807</v>
+        <v>0.5757031368489379</v>
       </c>
       <c r="D9">
-        <v>0.4788997620522345</v>
+        <v>0.3973064685948911</v>
       </c>
       <c r="E9">
-        <v>0.6458911064127129</v>
+        <v>0.5839835217809318</v>
       </c>
       <c r="F9">
-        <v>0.2221063583972489</v>
+        <v>0.2205383235134294</v>
       </c>
       <c r="G9">
-        <v>3.748902924661018</v>
+        <v>2.811401988870477</v>
       </c>
       <c r="H9">
-        <v>0.4026873099221801</v>
+        <v>0.3950271034366061</v>
       </c>
       <c r="I9">
-        <v>1.00444976398707</v>
+        <v>0.9704467507815134</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.9052714559783743</v>
+        <v>0.7019304081927639</v>
       </c>
       <c r="C10">
-        <v>0.7810822471107292</v>
+        <v>0.5908811210250253</v>
       </c>
       <c r="D10">
-        <v>0.4843985011487774</v>
+        <v>0.4159870800046085</v>
       </c>
       <c r="E10">
-        <v>0.5350864626845685</v>
+        <v>0.5926329378942796</v>
       </c>
       <c r="F10">
-        <v>0.3171523184750582</v>
+        <v>0.2238313376147085</v>
       </c>
       <c r="G10">
-        <v>2.779607855834155</v>
+        <v>3.789430941151198</v>
       </c>
       <c r="H10">
-        <v>0.5356599989777783</v>
+        <v>0.4095975541612989</v>
       </c>
       <c r="I10">
-        <v>1.271792703779753</v>
+        <v>0.9910618365653538</v>
       </c>
     </row>
   </sheetData>
